--- a/_2_cases_input_outputs/_08_CAPITOUL/DOE_Ref_MediumOffice_4B/vcwg_ep_saving/ver1.1/CAPITOUL_Bypass_2004_s_wall_Text_K_n_wall_Text_K.xlsx
+++ b/_2_cases_input_outputs/_08_CAPITOUL/DOE_Ref_MediumOffice_4B/vcwg_ep_saving/ver1.1/CAPITOUL_Bypass_2004_s_wall_Text_K_n_wall_Text_K.xlsx
@@ -402,10 +402,10 @@
         <v>38139</v>
       </c>
       <c r="B2">
-        <v>291.1469078999079</v>
+        <v>288.5986340606634</v>
       </c>
       <c r="C2">
-        <v>291.1848073333354</v>
+        <v>288.5776607295194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>38139.00347222222</v>
       </c>
       <c r="B3">
-        <v>290.1353993303802</v>
+        <v>288.5092326936182</v>
       </c>
       <c r="C3">
-        <v>290.1398148106043</v>
+        <v>288.4893241547164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>38139.00694444445</v>
       </c>
       <c r="B4">
-        <v>289.5376097161179</v>
+        <v>288.4119804360429</v>
       </c>
       <c r="C4">
-        <v>289.5300214782367</v>
+        <v>288.3933469300744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>38139.01041666666</v>
       </c>
       <c r="B5">
-        <v>289.3169156693407</v>
+        <v>288.3072306037062</v>
       </c>
       <c r="C5">
-        <v>289.3123038932915</v>
+        <v>288.2936772687602</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>38139.01388888889</v>
       </c>
       <c r="B6">
-        <v>289.2545392358742</v>
+        <v>288.20019033809</v>
       </c>
       <c r="C6">
-        <v>289.247822847123</v>
+        <v>288.1881428000468</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>38139.01736111111</v>
       </c>
       <c r="B7">
-        <v>289.1735462636615</v>
+        <v>288.0903529500857</v>
       </c>
       <c r="C7">
-        <v>289.1659782036791</v>
+        <v>288.0788765095535</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>38139.02083333334</v>
       </c>
       <c r="B8">
-        <v>289.1358523863688</v>
+        <v>287.9780399469893</v>
       </c>
       <c r="C8">
-        <v>289.1282214028104</v>
+        <v>287.9667060150296</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>38139.02430555555</v>
       </c>
       <c r="B9">
-        <v>289.053467593602</v>
+        <v>287.8635284714254</v>
       </c>
       <c r="C9">
-        <v>289.0464969903498</v>
+        <v>287.8521377152532</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -490,10 +490,10 @@
         <v>38139.02777777778</v>
       </c>
       <c r="B10">
-        <v>289.0038434159514</v>
+        <v>287.7470139684064</v>
       </c>
       <c r="C10">
-        <v>288.9983432778209</v>
+        <v>287.7355093538876</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -501,10 +501,10 @@
         <v>38139.03125</v>
       </c>
       <c r="B11">
-        <v>288.919403396422</v>
+        <v>287.6286266049356</v>
       </c>
       <c r="C11">
-        <v>288.9155841904171</v>
+        <v>287.617049169766</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -512,10 +512,10 @@
         <v>38139.03472222222</v>
       </c>
       <c r="B12">
-        <v>288.8727360435844</v>
+        <v>287.5084465755</v>
       </c>
       <c r="C12">
-        <v>288.8717645540096</v>
+        <v>287.4969094636688</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -523,10 +523,10 @@
         <v>38139.03819444445</v>
       </c>
       <c r="B13">
-        <v>288.7958887521345</v>
+        <v>287.3865151007989</v>
       </c>
       <c r="C13">
-        <v>288.7977406115659</v>
+        <v>287.3751874882506</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -534,10 +534,10 @@
         <v>38139.04166666666</v>
       </c>
       <c r="B14">
-        <v>288.782530711225</v>
+        <v>287.3083587077896</v>
       </c>
       <c r="C14">
-        <v>288.7878881759452</v>
+        <v>287.2979873633201</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -545,10 +545,10 @@
         <v>38139.04513888889</v>
       </c>
       <c r="B15">
-        <v>288.737009238861</v>
+        <v>287.2477433075102</v>
       </c>
       <c r="C15">
-        <v>288.7447224914081</v>
+        <v>287.2386300202243</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -556,10 +556,10 @@
         <v>38139.04861111111</v>
       </c>
       <c r="B16">
-        <v>288.7156841162396</v>
+        <v>287.1982222873837</v>
       </c>
       <c r="C16">
-        <v>288.7262907894493</v>
+        <v>287.1905082561528</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -567,10 +567,10 @@
         <v>38139.05208333334</v>
       </c>
       <c r="B17">
-        <v>288.7428888988707</v>
+        <v>287.1564683883519</v>
       </c>
       <c r="C17">
-        <v>288.7577091966265</v>
+        <v>287.1502486331681</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -578,10 +578,10 @@
         <v>38139.05555555555</v>
       </c>
       <c r="B18">
-        <v>288.8083506714725</v>
+        <v>287.1203563421094</v>
       </c>
       <c r="C18">
-        <v>288.8284014533979</v>
+        <v>287.1156898410533</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -589,10 +589,10 @@
         <v>38139.05902777778</v>
       </c>
       <c r="B19">
-        <v>288.7979611839597</v>
+        <v>287.0884376000139</v>
       </c>
       <c r="C19">
-        <v>288.8205866922906</v>
+        <v>287.0853638647201</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -600,10 +600,10 @@
         <v>38139.0625</v>
       </c>
       <c r="B20">
-        <v>288.8312412448419</v>
+        <v>287.0596920565567</v>
       </c>
       <c r="C20">
-        <v>288.8580290787571</v>
+        <v>287.0582390841294</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -611,10 +611,10 @@
         <v>38139.06597222222</v>
       </c>
       <c r="B21">
-        <v>288.7906798399432</v>
+        <v>287.0333829838943</v>
       </c>
       <c r="C21">
-        <v>288.8188600050103</v>
+        <v>287.0335717677343</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -622,10 +622,10 @@
         <v>38139.06944444445</v>
       </c>
       <c r="B22">
-        <v>288.7992723114678</v>
+        <v>287.0089672798121</v>
       </c>
       <c r="C22">
-        <v>288.8309215315225</v>
+        <v>287.0108143383771</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -633,10 +633,10 @@
         <v>38139.07291666666</v>
       </c>
       <c r="B23">
-        <v>288.7363660550517</v>
+        <v>286.986037506541</v>
       </c>
       <c r="C23">
-        <v>288.7685245229324</v>
+        <v>286.989556191754</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -644,10 +644,10 @@
         <v>38139.07638888889</v>
       </c>
       <c r="B24">
-        <v>288.7325339927365</v>
+        <v>286.9642832482315</v>
       </c>
       <c r="C24">
-        <v>288.7679405182647</v>
+        <v>286.969484274807</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -655,10 +655,10 @@
         <v>38139.07986111111</v>
       </c>
       <c r="B25">
-        <v>288.6564584162537</v>
+        <v>286.9434646967983</v>
       </c>
       <c r="C25">
-        <v>288.6917922993967</v>
+        <v>286.950356154881</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -666,10 +666,10 @@
         <v>38139.08333333334</v>
       </c>
       <c r="B26">
-        <v>288.6695393743237</v>
+        <v>286.9453460251856</v>
       </c>
       <c r="C26">
-        <v>288.7072062540313</v>
+        <v>286.9534660675306</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -677,10 +677,10 @@
         <v>38139.08680555555</v>
       </c>
       <c r="B27">
-        <v>288.6183322288064</v>
+        <v>286.957552767161</v>
       </c>
       <c r="C27">
-        <v>288.6542800531544</v>
+        <v>286.9665295451676</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -688,10 +688,10 @@
         <v>38139.09027777778</v>
       </c>
       <c r="B28">
-        <v>288.6523653610225</v>
+        <v>286.9768223965609</v>
       </c>
       <c r="C28">
-        <v>288.6901213491583</v>
+        <v>286.9863265072858</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -699,10 +699,10 @@
         <v>38139.09375</v>
       </c>
       <c r="B29">
-        <v>288.6131426756762</v>
+        <v>287.0013818467338</v>
       </c>
       <c r="C29">
-        <v>288.648540371225</v>
+        <v>287.0111212413673</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -710,10 +710,10 @@
         <v>38139.09722222222</v>
       </c>
       <c r="B30">
-        <v>288.6650047601394</v>
+        <v>287.0300484571819</v>
       </c>
       <c r="C30">
-        <v>288.7021225061915</v>
+        <v>287.0397651672355</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -721,10 +721,10 @@
         <v>38139.10069444445</v>
       </c>
       <c r="B31">
-        <v>288.6350011302325</v>
+        <v>287.061983734549</v>
       </c>
       <c r="C31">
-        <v>288.6693419069172</v>
+        <v>287.071449971211</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -732,10 +732,10 @@
         <v>38139.10416666666</v>
       </c>
       <c r="B32">
-        <v>288.7014302162256</v>
+        <v>287.0965734046978</v>
       </c>
       <c r="C32">
-        <v>288.7375047654112</v>
+        <v>287.1055875061959</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -743,10 +743,10 @@
         <v>38139.10763888889</v>
       </c>
       <c r="B33">
-        <v>288.6770747311771</v>
+        <v>287.133356657203</v>
       </c>
       <c r="C33">
-        <v>288.7099735322186</v>
+        <v>287.1417392473533</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -754,10 +754,10 @@
         <v>38139.11111111111</v>
       </c>
       <c r="B34">
-        <v>288.7549743357963</v>
+        <v>287.171981183766</v>
       </c>
       <c r="C34">
-        <v>288.7896429246844</v>
+        <v>287.1795716966017</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -765,10 +765,10 @@
         <v>38139.11458333334</v>
       </c>
       <c r="B35">
-        <v>288.7340371880757</v>
+        <v>287.2121733212959</v>
       </c>
       <c r="C35">
-        <v>288.7651527828152</v>
+        <v>287.218826927132</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -776,10 +776,10 @@
         <v>38139.11805555555</v>
       </c>
       <c r="B36">
-        <v>288.821607165094</v>
+        <v>287.2537175897543</v>
       </c>
       <c r="C36">
-        <v>288.8545654726279</v>
+        <v>287.2593024966466</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -787,10 +787,10 @@
         <v>38139.12152777778</v>
       </c>
       <c r="B37">
-        <v>288.802897242803</v>
+        <v>287.2964423226113</v>
       </c>
       <c r="C37">
-        <v>288.8319558159077</v>
+        <v>287.3008373944758</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -798,10 +798,10 @@
         <v>38139.125</v>
       </c>
       <c r="B38">
-        <v>288.881871161634</v>
+        <v>287.321299849293</v>
       </c>
       <c r="C38">
-        <v>288.9131825786167</v>
+        <v>287.3246324912712</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -809,10 +809,10 @@
         <v>38139.12847222222</v>
       </c>
       <c r="B39">
-        <v>288.8391542311343</v>
+        <v>287.3387315382705</v>
       </c>
       <c r="C39">
-        <v>288.8667782892355</v>
+        <v>287.3411602412318</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -820,10 +820,10 @@
         <v>38139.13194444445</v>
       </c>
       <c r="B40">
-        <v>288.9119207481074</v>
+        <v>287.3513821992902</v>
       </c>
       <c r="C40">
-        <v>288.9422963659977</v>
+        <v>287.3530603908177</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -831,10 +831,10 @@
         <v>38139.13541666666</v>
       </c>
       <c r="B41">
-        <v>288.8598234797058</v>
+        <v>287.3606372557509</v>
       </c>
       <c r="C41">
-        <v>288.8865930571981</v>
+        <v>287.3617054811085</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -842,10 +842,10 @@
         <v>38139.13888888889</v>
       </c>
       <c r="B42">
-        <v>288.9322617815566</v>
+        <v>287.3673965155181</v>
       </c>
       <c r="C42">
-        <v>288.962219005011</v>
+        <v>287.3679796243024</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -853,10 +853,10 @@
         <v>38139.14236111111</v>
       </c>
       <c r="B43">
-        <v>288.8742129671552</v>
+        <v>287.3722824099801</v>
       </c>
       <c r="C43">
-        <v>288.9005937306338</v>
+        <v>287.3724892869652</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -864,10 +864,10 @@
         <v>38139.14583333334</v>
       </c>
       <c r="B44">
-        <v>288.9482728799048</v>
+        <v>287.375739604406</v>
       </c>
       <c r="C44">
-        <v>288.9781937587241</v>
+        <v>287.3756641462087</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -875,10 +875,10 @@
         <v>38139.14930555555</v>
       </c>
       <c r="B45">
-        <v>288.8854050117037</v>
+        <v>287.3780929736809</v>
       </c>
       <c r="C45">
-        <v>288.9117101341956</v>
+        <v>287.3778155896979</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -886,10 +886,10 @@
         <v>38139.15277777778</v>
       </c>
       <c r="B46">
-        <v>288.9615704904908</v>
+        <v>287.3795840314703</v>
       </c>
       <c r="C46">
-        <v>288.9916897335906</v>
+        <v>287.3791732918003</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -897,10 +897,10 @@
         <v>38139.15625</v>
       </c>
       <c r="B47">
-        <v>288.8945134840287</v>
+        <v>287.3803948816045</v>
       </c>
       <c r="C47">
-        <v>288.9209380756782</v>
+        <v>287.3799091220126</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -908,10 +908,10 @@
         <v>38139.15972222222</v>
       </c>
       <c r="B48">
-        <v>288.9730370388494</v>
+        <v>287.3806644865495</v>
       </c>
       <c r="C48">
-        <v>289.0035021046261</v>
+        <v>287.3801532817193</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -919,10 +919,10 @@
         <v>38139.16319444445</v>
       </c>
       <c r="B49">
-        <v>288.9024086001552</v>
+        <v>287.3804999977942</v>
       </c>
       <c r="C49">
-        <v>288.9202270515214</v>
+        <v>287.3785908891946</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -930,10 +930,10 @@
         <v>38139.16666666666</v>
       </c>
       <c r="B50">
-        <v>288.9874961155517</v>
+        <v>287.3700180499819</v>
       </c>
       <c r="C50">
-        <v>288.9850189027981</v>
+        <v>287.3658664868634</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -941,10 +941,10 @@
         <v>38139.17013888889</v>
       </c>
       <c r="B51">
-        <v>288.8969345315116</v>
+        <v>287.3535612031468</v>
       </c>
       <c r="C51">
-        <v>288.8900424656722</v>
+        <v>287.3479520134554</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -952,10 +952,10 @@
         <v>38139.17361111111</v>
       </c>
       <c r="B52">
-        <v>288.9637845816873</v>
+        <v>287.3334252101512</v>
       </c>
       <c r="C52">
-        <v>288.9465951354188</v>
+        <v>287.3264995334713</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -963,10 +963,10 @@
         <v>38139.17708333334</v>
       </c>
       <c r="B53">
-        <v>288.8513605366886</v>
+        <v>287.3106348300117</v>
       </c>
       <c r="C53">
-        <v>288.8340453250905</v>
+        <v>287.3024251696895</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -974,10 +974,10 @@
         <v>38139.18055555555</v>
       </c>
       <c r="B54">
-        <v>288.9029878070212</v>
+        <v>287.2858445990182</v>
       </c>
       <c r="C54">
-        <v>288.8779881940577</v>
+        <v>287.2763462334087</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -985,10 +985,10 @@
         <v>38139.18402777778</v>
       </c>
       <c r="B55">
-        <v>288.7699490661656</v>
+        <v>287.2595118009153</v>
       </c>
       <c r="C55">
-        <v>288.7469347957923</v>
+        <v>287.2487039844652</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -996,10 +996,10 @@
         <v>38139.1875</v>
       </c>
       <c r="B56">
-        <v>288.8121136014857</v>
+        <v>287.231968194656</v>
       </c>
       <c r="C56">
-        <v>288.7825564576256</v>
+        <v>287.219823919087</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>38139.19097222222</v>
       </c>
       <c r="B57">
-        <v>288.665616308112</v>
+        <v>287.2034604713443</v>
       </c>
       <c r="C57">
-        <v>288.6391025257797</v>
+        <v>287.1899514622791</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>38139.19444444445</v>
       </c>
       <c r="B58">
-        <v>288.7064701674437</v>
+        <v>287.1741754994682</v>
       </c>
       <c r="C58">
-        <v>288.6737351019601</v>
+        <v>287.1592747600151</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>38139.19791666666</v>
       </c>
       <c r="B59">
-        <v>288.5511078874006</v>
+        <v>287.1442569404434</v>
       </c>
       <c r="C59">
-        <v>288.521980625795</v>
+        <v>287.1279399545904</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>38139.20138888889</v>
       </c>
       <c r="B60">
-        <v>288.5933709724096</v>
+        <v>287.1138166127099</v>
       </c>
       <c r="C60">
-        <v>288.5580645866324</v>
+        <v>287.0960618083137</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>38139.20486111111</v>
       </c>
       <c r="B61">
-        <v>288.4301019178106</v>
+        <v>287.0829424989128</v>
       </c>
       <c r="C61">
-        <v>288.3988107212842</v>
+        <v>287.0637313083549</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1062,10 +1062,10 @@
         <v>38139.20833333334</v>
       </c>
       <c r="B62">
-        <v>288.496277504618</v>
+        <v>287.0744622744868</v>
       </c>
       <c r="C62">
-        <v>288.4596774926868</v>
+        <v>287.0543051769096</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1073,10 +1073,10 @@
         <v>38139.21180555555</v>
       </c>
       <c r="B63">
-        <v>288.3551408735229</v>
+        <v>287.075485388751</v>
       </c>
       <c r="C63">
-        <v>288.3239066727637</v>
+        <v>287.0547848759759</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1084,10 +1084,10 @@
         <v>38139.21527777778</v>
       </c>
       <c r="B64">
-        <v>288.4429582873333</v>
+        <v>287.0826802608711</v>
       </c>
       <c r="C64">
-        <v>288.4074084975184</v>
+        <v>287.0617799939012</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1095,10 +1095,10 @@
         <v>38139.21875</v>
       </c>
       <c r="B65">
-        <v>288.3066019608073</v>
+        <v>287.0942682111635</v>
       </c>
       <c r="C65">
-        <v>288.2768978264384</v>
+        <v>287.0734568118382</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1106,10 +1106,10 @@
         <v>38139.22222222222</v>
       </c>
       <c r="B66">
-        <v>288.4090829506424</v>
+        <v>287.1090790859373</v>
       </c>
       <c r="C66">
-        <v>288.3757632287235</v>
+        <v>287.0885924650161</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1117,10 +1117,10 @@
         <v>38139.22569444445</v>
       </c>
       <c r="B67">
-        <v>288.2939116467928</v>
+        <v>287.1538622185103</v>
       </c>
       <c r="C67">
-        <v>288.3205961467896</v>
+        <v>287.1731483732494</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1128,10 +1128,10 @@
         <v>38139.22916666666</v>
       </c>
       <c r="B68">
-        <v>288.4845162401716</v>
+        <v>287.2416662692357</v>
       </c>
       <c r="C68">
-        <v>288.5136138743062</v>
+        <v>287.2591269981538</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1139,10 +1139,10 @@
         <v>38139.23263888889</v>
       </c>
       <c r="B69">
-        <v>288.4127695737438</v>
+        <v>287.3442087677032</v>
       </c>
       <c r="C69">
-        <v>288.4336720360051</v>
+        <v>287.3593971039151</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1150,10 +1150,10 @@
         <v>38139.23611111111</v>
       </c>
       <c r="B70">
-        <v>288.6402239062144</v>
+        <v>287.4571214082493</v>
       </c>
       <c r="C70">
-        <v>288.6629342589287</v>
+        <v>287.4697465554627</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1161,10 +1161,10 @@
         <v>38139.23958333334</v>
       </c>
       <c r="B71">
-        <v>288.5856717485482</v>
+        <v>287.5774663549265</v>
       </c>
       <c r="C71">
-        <v>288.6003318755504</v>
+        <v>287.5873648480221</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1172,10 +1172,10 @@
         <v>38139.24305555555</v>
       </c>
       <c r="B72">
-        <v>288.7063708550742</v>
+        <v>287.7031033191178</v>
       </c>
       <c r="C72">
-        <v>288.7190640416802</v>
+        <v>287.7102246790291</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1183,10 +1183,10 @@
         <v>38139.24652777778</v>
       </c>
       <c r="B73">
-        <v>288.6499711095122</v>
+        <v>287.8322152077075</v>
       </c>
       <c r="C73">
-        <v>288.6558867134916</v>
+        <v>287.8367002615731</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1194,10 +1194,10 @@
         <v>38139.25</v>
       </c>
       <c r="B74">
-        <v>288.8341309996516</v>
+        <v>287.9653399206385</v>
       </c>
       <c r="C74">
-        <v>288.8398575177952</v>
+        <v>287.967486820721</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1205,10 +1205,10 @@
         <v>38139.25347222222</v>
       </c>
       <c r="B75">
-        <v>288.7563225404215</v>
+        <v>288.1005468072975</v>
       </c>
       <c r="C75">
-        <v>288.7565441058062</v>
+        <v>288.1006914825169</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1216,10 +1216,10 @@
         <v>38139.25694444445</v>
       </c>
       <c r="B76">
-        <v>288.8795847133629</v>
+        <v>288.2369020826014</v>
       </c>
       <c r="C76">
-        <v>288.8789109135652</v>
+        <v>288.2354282217717</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1227,10 +1227,10 @@
         <v>38139.26041666666</v>
       </c>
       <c r="B77">
-        <v>288.9101822820003</v>
+        <v>288.3737671984291</v>
       </c>
       <c r="C77">
-        <v>288.9075980125041</v>
+        <v>288.3710960650075</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1238,10 +1238,10 @@
         <v>38139.26388888889</v>
       </c>
       <c r="B78">
-        <v>289.082052809222</v>
+        <v>288.5106797225123</v>
       </c>
       <c r="C78">
-        <v>289.0797864685446</v>
+        <v>288.507260552598</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1249,10 +1249,10 @@
         <v>38139.26736111111</v>
       </c>
       <c r="B79">
-        <v>289.129045155324</v>
+        <v>288.6473000540274</v>
       </c>
       <c r="C79">
-        <v>289.1261824439654</v>
+        <v>288.6436023678835</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1260,10 +1260,10 @@
         <v>38139.27083333334</v>
       </c>
       <c r="B80">
-        <v>289.3784057606002</v>
+        <v>288.85162595003</v>
       </c>
       <c r="C80">
-        <v>289.3599549826747</v>
+        <v>288.8346735583578</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>38139.27430555555</v>
       </c>
       <c r="B81">
-        <v>289.5286064200218</v>
+        <v>289.0892559100739</v>
       </c>
       <c r="C81">
-        <v>289.4776791761077</v>
+        <v>289.0396706049715</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>38139.27777777778</v>
       </c>
       <c r="B82">
-        <v>289.8345025177142</v>
+        <v>289.3414416386367</v>
       </c>
       <c r="C82">
-        <v>289.7462970168968</v>
+        <v>289.2548945765228</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>38139.28125</v>
       </c>
       <c r="B83">
-        <v>290.0156181499172</v>
+        <v>289.6008123027939</v>
       </c>
       <c r="C83">
-        <v>289.8893625069065</v>
+        <v>289.4762221675523</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>38139.28472222222</v>
       </c>
       <c r="B84">
-        <v>290.3433681408618</v>
+        <v>289.8627721252101</v>
       </c>
       <c r="C84">
-        <v>290.1799474119026</v>
+        <v>289.700995924213</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1315,10 +1315,10 @@
         <v>38139.28819444445</v>
       </c>
       <c r="B85">
-        <v>290.5360578211715</v>
+        <v>290.1268887165323</v>
       </c>
       <c r="C85">
-        <v>290.3332737024388</v>
+        <v>289.9259003610214</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>38139.29166666666</v>
       </c>
       <c r="B86">
-        <v>290.8795673330171</v>
+        <v>290.4060621025978</v>
       </c>
       <c r="C86">
-        <v>290.6469169063509</v>
+        <v>290.1751500917815</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>38139.29513888889</v>
       </c>
       <c r="B87">
-        <v>291.0860050275686</v>
+        <v>290.6905867833273</v>
       </c>
       <c r="C87">
-        <v>290.8293585105068</v>
+        <v>290.4356393756657</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>38139.29861111111</v>
       </c>
       <c r="B88">
-        <v>291.4567405903455</v>
+        <v>290.9777240350196</v>
       </c>
       <c r="C88">
-        <v>291.1811258397938</v>
+        <v>290.7042016994269</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>38139.30208333334</v>
       </c>
       <c r="B89">
-        <v>291.6904073397278</v>
+        <v>291.2660037673466</v>
       </c>
       <c r="C89">
-        <v>291.4017209369758</v>
+        <v>290.979209477733</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>38139.30555555555</v>
       </c>
       <c r="B90">
-        <v>292.0928060562851</v>
+        <v>291.554518871663</v>
       </c>
       <c r="C90">
-        <v>291.7950086922112</v>
+        <v>291.2596296151602</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>38139.30902777778</v>
       </c>
       <c r="B91">
-        <v>292.3404033235016</v>
+        <v>291.8427002614477</v>
       </c>
       <c r="C91">
-        <v>292.039847748298</v>
+        <v>291.5447638511467</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>38139.3125</v>
       </c>
       <c r="B92">
-        <v>292.7774713403889</v>
+        <v>292.1456687567258</v>
       </c>
       <c r="C92">
-        <v>292.4661387070098</v>
+        <v>291.8386028674602</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>38139.31597222222</v>
       </c>
       <c r="B93">
-        <v>293.0560235532016</v>
+        <v>292.4521145971118</v>
       </c>
       <c r="C93">
-        <v>292.7382365321401</v>
+        <v>292.1382481760162</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>38139.31944444445</v>
       </c>
       <c r="B94">
-        <v>293.5155748322318</v>
+        <v>292.7589921654335</v>
       </c>
       <c r="C94">
-        <v>293.1931886650814</v>
+        <v>292.4428354139644</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>38139.32291666666</v>
       </c>
       <c r="B95">
-        <v>293.8052154485552</v>
+        <v>293.0646677007383</v>
       </c>
       <c r="C95">
-        <v>293.4865392913313</v>
+        <v>292.7518454611684</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>38139.32638888889</v>
       </c>
       <c r="B96">
-        <v>294.2724434419943</v>
+        <v>293.3680976637806</v>
       </c>
       <c r="C96">
-        <v>293.9605622376561</v>
+        <v>293.0649027720136</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>38139.32986111111</v>
       </c>
       <c r="B97">
-        <v>294.5684251956135</v>
+        <v>293.6685812625407</v>
       </c>
       <c r="C97">
-        <v>294.2732292744475</v>
+        <v>293.3817147523302</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>38139.33333333334</v>
       </c>
       <c r="B98">
-        <v>295.0810547826354</v>
+        <v>294.013500758657</v>
       </c>
       <c r="C98">
-        <v>294.7451875524926</v>
+        <v>293.6886283663213</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>38139.33680555555</v>
       </c>
       <c r="B99">
-        <v>295.3822001813687</v>
+        <v>294.3075175352397</v>
       </c>
       <c r="C99">
-        <v>295.057761929752</v>
+        <v>293.9933766404425</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>38139.34027777778</v>
       </c>
       <c r="B100">
-        <v>295.8422674577929</v>
+        <v>294.5818565448828</v>
       </c>
       <c r="C100">
-        <v>295.5438456020918</v>
+        <v>294.2963533781317</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>38139.34375</v>
       </c>
       <c r="B101">
-        <v>296.1326497233777</v>
+        <v>294.8417059679782</v>
       </c>
       <c r="C101">
-        <v>295.8764292177486</v>
+        <v>294.597866937587</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>38139.34722222222</v>
       </c>
       <c r="B102">
-        <v>296.5726142484668</v>
+        <v>295.0892373449858</v>
       </c>
       <c r="C102">
-        <v>296.3667970474678</v>
+        <v>294.8980861309916</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>38139.35069444445</v>
       </c>
       <c r="B103">
-        <v>296.8541329384711</v>
+        <v>295.3257331197111</v>
       </c>
       <c r="C103">
-        <v>296.7112698031647</v>
+        <v>295.1970967420398</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1524,10 +1524,10 @@
         <v>38139.35416666666</v>
       </c>
       <c r="B104">
-        <v>297.2807234970006</v>
+        <v>295.5620226661783</v>
       </c>
       <c r="C104">
-        <v>297.2078195252983</v>
+        <v>295.5052116543348</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>38139.35763888889</v>
       </c>
       <c r="B105">
-        <v>297.6101561738918</v>
+        <v>295.8485365173041</v>
       </c>
       <c r="C105">
-        <v>297.6042371296879</v>
+        <v>295.8268000541937</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>38139.36111111111</v>
       </c>
       <c r="B106">
-        <v>298.1609896552505</v>
+        <v>296.21418772011</v>
       </c>
       <c r="C106">
-        <v>298.0726255464569</v>
+        <v>296.1085141956578</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>38139.36458333334</v>
       </c>
       <c r="B107">
-        <v>298.6135320137387</v>
+        <v>296.5918247569036</v>
       </c>
       <c r="C107">
-        <v>298.4367393599346</v>
+        <v>296.3977639476876</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>38139.36805555555</v>
       </c>
       <c r="B108">
-        <v>299.1816436196322</v>
+        <v>296.9773833846712</v>
       </c>
       <c r="C108">
-        <v>298.9139230160804</v>
+        <v>296.6911657416168</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>38139.37152777778</v>
       </c>
       <c r="B109">
-        <v>299.6629757063342</v>
+        <v>297.3683767194883</v>
       </c>
       <c r="C109">
-        <v>299.3000554071625</v>
+        <v>296.9867519343806</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>38139.375</v>
       </c>
       <c r="B110">
-        <v>300.2413085238984</v>
+        <v>297.7863604256654</v>
       </c>
       <c r="C110">
-        <v>299.7811659918572</v>
+        <v>297.3066142241622</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>38139.37847222222</v>
       </c>
       <c r="B111">
-        <v>300.7517431753571</v>
+        <v>298.2157673605343</v>
       </c>
       <c r="C111">
-        <v>300.1912612036579</v>
+        <v>297.635410583792</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>38139.38194444445</v>
       </c>
       <c r="B112">
-        <v>301.347274611487</v>
+        <v>298.652381357375</v>
       </c>
       <c r="C112">
-        <v>300.6848103800787</v>
+        <v>297.9691635045332</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>38139.38541666666</v>
       </c>
       <c r="B113">
-        <v>301.8962275790343</v>
+        <v>299.0938338113264</v>
       </c>
       <c r="C113">
-        <v>301.1294983324935</v>
+        <v>298.3057163076306</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>38139.38888888889</v>
       </c>
       <c r="B114">
-        <v>302.4692350599869</v>
+        <v>299.50632352168</v>
       </c>
       <c r="C114">
-        <v>301.736992050545</v>
+        <v>298.7520201348903</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>38139.39236111111</v>
       </c>
       <c r="B115">
-        <v>303.0198170641626</v>
+        <v>299.932905017263</v>
       </c>
       <c r="C115">
-        <v>302.2500827998824</v>
+        <v>299.1403229815936</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>38139.39583333334</v>
       </c>
       <c r="B116">
-        <v>303.6210822949927</v>
+        <v>300.3787375152488</v>
       </c>
       <c r="C116">
-        <v>302.6190866575533</v>
+        <v>299.3525119145714</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>38139.39930555555</v>
       </c>
       <c r="B117">
-        <v>304.1630588708064</v>
+        <v>300.7929278694853</v>
       </c>
       <c r="C117">
-        <v>303.010714869198</v>
+        <v>299.6152872679135</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>38139.40277777778</v>
       </c>
       <c r="B118">
-        <v>304.7076103968633</v>
+        <v>301.1984398313913</v>
       </c>
       <c r="C118">
-        <v>303.4162540720848</v>
+        <v>299.8806209528972</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>38139.40625</v>
       </c>
       <c r="B119">
-        <v>305.2348026327106</v>
+        <v>301.5997477433479</v>
       </c>
       <c r="C119">
-        <v>303.807472099408</v>
+        <v>300.1446848567288</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>38139.40972222222</v>
       </c>
       <c r="B120">
-        <v>305.7631186667123</v>
+        <v>301.9989362008583</v>
       </c>
       <c r="C120">
-        <v>304.2002671056674</v>
+        <v>300.4070054351865</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>38139.41319444445</v>
       </c>
       <c r="B121">
-        <v>306.2847755266794</v>
+        <v>302.3972328951135</v>
       </c>
       <c r="C121">
-        <v>304.5856488292488</v>
+        <v>300.6675627164731</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>38139.41666666666</v>
       </c>
       <c r="B122">
-        <v>306.7734790764225</v>
+        <v>302.7578209737649</v>
       </c>
       <c r="C122">
-        <v>304.9464348364987</v>
+        <v>300.8996729053021</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>38139.42013888889</v>
       </c>
       <c r="B123">
-        <v>307.2304457406881</v>
+        <v>303.1039482539057</v>
       </c>
       <c r="C123">
-        <v>305.2780286790896</v>
+        <v>301.1200948254157</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>38139.42361111111</v>
       </c>
       <c r="B124">
-        <v>307.6475584680721</v>
+        <v>303.4409294480752</v>
       </c>
       <c r="C124">
-        <v>305.5710568239829</v>
+        <v>301.3327222111526</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1755,10 +1755,10 @@
         <v>38139.42708333334</v>
       </c>
       <c r="B125">
-        <v>308.0393283325041</v>
+        <v>303.7714614503926</v>
       </c>
       <c r="C125">
-        <v>305.8393005693629</v>
+        <v>301.5395714430529</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>38139.43055555555</v>
       </c>
       <c r="B126">
-        <v>308.4147013888262</v>
+        <v>304.0971987401083</v>
       </c>
       <c r="C126">
-        <v>306.0913455760095</v>
+        <v>301.7419235257287</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1777,10 +1777,10 @@
         <v>38139.43402777778</v>
       </c>
       <c r="B127">
-        <v>308.7817183559862</v>
+        <v>304.4192019683512</v>
       </c>
       <c r="C127">
-        <v>306.335023065154</v>
+        <v>301.9406431293483</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1788,10 +1788,10 @@
         <v>38139.4375</v>
       </c>
       <c r="B128">
-        <v>309.1130771996851</v>
+        <v>304.7137889508296</v>
       </c>
       <c r="C128">
-        <v>306.5622040709673</v>
+        <v>302.1312231979746</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>38139.44097222222</v>
       </c>
       <c r="B129">
-        <v>309.4250961851311</v>
+        <v>304.9958945614292</v>
       </c>
       <c r="C129">
-        <v>306.7778676636482</v>
+        <v>302.3172412167032</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>38139.44444444445</v>
       </c>
       <c r="B130">
-        <v>309.7174229070514</v>
+        <v>305.2689450023155</v>
       </c>
       <c r="C130">
-        <v>306.979336172988</v>
+        <v>302.4997215917326</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>38139.44791666666</v>
       </c>
       <c r="B131">
-        <v>309.9966672793527</v>
+        <v>305.5347221500623</v>
       </c>
       <c r="C131">
-        <v>307.1719483515604</v>
+        <v>302.6792625382456</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>38139.45138888889</v>
       </c>
       <c r="B132">
-        <v>310.2603387478009</v>
+        <v>305.7943577102534</v>
       </c>
       <c r="C132">
-        <v>307.3525879629395</v>
+        <v>302.856274392331</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>38139.45486111111</v>
       </c>
       <c r="B133">
-        <v>310.5127856217015</v>
+        <v>306.0486142301055</v>
       </c>
       <c r="C133">
-        <v>307.5250602436291</v>
+        <v>303.0310544808317</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>38139.45833333334</v>
       </c>
       <c r="B134">
-        <v>310.8142210735178</v>
+        <v>306.3468346856239</v>
       </c>
       <c r="C134">
-        <v>307.7194468419794</v>
+        <v>303.2208914171031</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>38139.46180555555</v>
       </c>
       <c r="B135">
-        <v>311.1450627321727</v>
+        <v>306.659183029218</v>
       </c>
       <c r="C135">
-        <v>307.9343758755783</v>
+        <v>303.4155663368855</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>38139.46527777778</v>
       </c>
       <c r="B136">
-        <v>311.5073967587978</v>
+        <v>306.9795533753887</v>
       </c>
       <c r="C136">
-        <v>308.1756579759826</v>
+        <v>303.6129760542232</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>38139.46875</v>
       </c>
       <c r="B137">
-        <v>311.8899404648519</v>
+        <v>307.3050236538592</v>
       </c>
       <c r="C137">
-        <v>308.4341303477426</v>
+        <v>303.8121396284579</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>38139.47222222222</v>
       </c>
       <c r="B138">
-        <v>312.2868268612427</v>
+        <v>307.6338244676442</v>
       </c>
       <c r="C138">
-        <v>308.7051195506306</v>
+        <v>304.0124843634684</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>38139.47569444445</v>
       </c>
       <c r="B139">
-        <v>312.6898193820379</v>
+        <v>307.9647953545702</v>
       </c>
       <c r="C139">
-        <v>308.9812416374334</v>
+        <v>304.2136550438346</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>38139.47916666666</v>
       </c>
       <c r="B140">
-        <v>313.0674882449222</v>
+        <v>308.2642058247286</v>
       </c>
       <c r="C140">
-        <v>309.2442803275765</v>
+        <v>304.3953602210832</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>38139.48263888889</v>
       </c>
       <c r="B141">
-        <v>313.4330739832286</v>
+        <v>308.5524591986189</v>
       </c>
       <c r="C141">
-        <v>309.4998721519519</v>
+        <v>304.5702936212983</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>38139.48611111111</v>
       </c>
       <c r="B142">
-        <v>313.7918801873486</v>
+        <v>308.8335618047945</v>
       </c>
       <c r="C142">
-        <v>309.7519472058694</v>
+        <v>304.741207745861</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1953,10 +1953,10 @@
         <v>38139.48958333334</v>
       </c>
       <c r="B143">
-        <v>314.1437955441037</v>
+        <v>309.1093657977636</v>
       </c>
       <c r="C143">
-        <v>309.9999013351152</v>
+        <v>304.9094682354391</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1964,10 +1964,10 @@
         <v>38139.49305555555</v>
       </c>
       <c r="B144">
-        <v>314.4910032486674</v>
+        <v>309.3809300196959</v>
       </c>
       <c r="C144">
-        <v>310.2456345726191</v>
+        <v>305.075921565822</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1975,10 +1975,10 @@
         <v>38139.49652777778</v>
       </c>
       <c r="B145">
-        <v>314.832323408986</v>
+        <v>309.6488856128058</v>
       </c>
       <c r="C145">
-        <v>310.4879044254567</v>
+        <v>305.2411319676098</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>38139.5</v>
       </c>
       <c r="B146">
-        <v>315.127646769715</v>
+        <v>309.8787336987011</v>
       </c>
       <c r="C146">
-        <v>310.7021233884679</v>
+        <v>305.3870104428649</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1997,10 +1997,10 @@
         <v>38139.50347222222</v>
       </c>
       <c r="B147">
-        <v>315.3962727760114</v>
+        <v>310.0930087397202</v>
       </c>
       <c r="C147">
-        <v>310.8973004299346</v>
+        <v>305.5252568068976</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2008,10 +2008,10 @@
         <v>38139.50694444445</v>
       </c>
       <c r="B148">
-        <v>315.6470395085884</v>
+        <v>310.2965817837525</v>
       </c>
       <c r="C148">
-        <v>311.0800841445369</v>
+        <v>305.6585587516598</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>38139.51041666666</v>
       </c>
       <c r="B149">
-        <v>315.8833325721624</v>
+        <v>310.4918982632371</v>
       </c>
       <c r="C149">
-        <v>311.2528683803415</v>
+        <v>305.7883098890443</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2030,10 +2030,10 @@
         <v>38139.51388888889</v>
       </c>
       <c r="B150">
-        <v>316.1080098561653</v>
+        <v>310.68045678767</v>
       </c>
       <c r="C150">
-        <v>311.4179245619307</v>
+        <v>305.9153975851087</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>38139.51736111111</v>
       </c>
       <c r="B151">
-        <v>316.3221798103907</v>
+        <v>310.8632295791539</v>
       </c>
       <c r="C151">
-        <v>311.5760346187847</v>
+        <v>306.0404247918332</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>38139.52083333334</v>
       </c>
       <c r="B152">
-        <v>316.4939193899727</v>
+        <v>311.0072938225262</v>
       </c>
       <c r="C152">
-        <v>311.707668282232</v>
+        <v>306.142941666359</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>38139.52430555555</v>
       </c>
       <c r="B153">
-        <v>316.6421700074123</v>
+        <v>311.1349813544988</v>
       </c>
       <c r="C153">
-        <v>311.8232648899662</v>
+        <v>306.2366620707562</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>38139.52777777778</v>
       </c>
       <c r="B154">
-        <v>316.7725253200948</v>
+        <v>311.2512256690567</v>
       </c>
       <c r="C154">
-        <v>311.9266519444382</v>
+        <v>306.3247747432496</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>38139.53125</v>
       </c>
       <c r="B155">
-        <v>316.8878529301344</v>
+        <v>311.3585629779509</v>
       </c>
       <c r="C155">
-        <v>312.0198315770836</v>
+        <v>306.4089402025128</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>38139.53472222222</v>
       </c>
       <c r="B156">
-        <v>316.9910425760343</v>
+        <v>311.4585753462101</v>
       </c>
       <c r="C156">
-        <v>312.1051563836807</v>
+        <v>306.4902099054744</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>38139.53819444445</v>
       </c>
       <c r="B157">
-        <v>317.0822705402975</v>
+        <v>311.5523086179709</v>
       </c>
       <c r="C157">
-        <v>312.1825047400227</v>
+        <v>306.5692892614109</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>38139.54166666666</v>
       </c>
       <c r="B158">
-        <v>317.1595143499296</v>
+        <v>311.633574270961</v>
       </c>
       <c r="C158">
-        <v>312.2495819404564</v>
+        <v>306.6397830130878</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>38139.54513888889</v>
       </c>
       <c r="B159">
-        <v>317.2193640669565</v>
+        <v>311.7073928866839</v>
       </c>
       <c r="C159">
-        <v>312.3029106795469</v>
+        <v>306.706444431839</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>38139.54861111111</v>
       </c>
       <c r="B160">
-        <v>317.3126529460401</v>
+        <v>311.7750787121595</v>
       </c>
       <c r="C160">
-        <v>312.3922944617395</v>
+        <v>306.7704901069619</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>38139.55208333334</v>
       </c>
       <c r="B161">
-        <v>317.4401986722345</v>
+        <v>311.8373759569594</v>
       </c>
       <c r="C161">
-        <v>312.5191147116948</v>
+        <v>306.8325847742354</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>38139.55555555555</v>
       </c>
       <c r="B162">
-        <v>317.5834805425922</v>
+        <v>311.8947795395907</v>
       </c>
       <c r="C162">
-        <v>312.6653684112283</v>
+        <v>306.8931573233326</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>38139.55902777778</v>
       </c>
       <c r="B163">
-        <v>317.7134560275119</v>
+        <v>311.9476365218979</v>
       </c>
       <c r="C163">
-        <v>312.8023646750407</v>
+        <v>306.9524965525269</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>38139.5625</v>
       </c>
       <c r="B164">
-        <v>317.7988455352357</v>
+        <v>311.9616411404883</v>
       </c>
       <c r="C164">
-        <v>312.9116581189632</v>
+        <v>306.9896914054913</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>38139.56597222222</v>
       </c>
       <c r="B165">
-        <v>317.8471655881185</v>
+        <v>311.9596850394809</v>
       </c>
       <c r="C165">
-        <v>312.9916745290736</v>
+        <v>307.0183613262259</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>38139.56944444445</v>
       </c>
       <c r="B166">
-        <v>317.8696305548667</v>
+        <v>311.9466953311396</v>
       </c>
       <c r="C166">
-        <v>313.0513606234742</v>
+        <v>307.0415531079882</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>38139.57291666666</v>
       </c>
       <c r="B167">
-        <v>317.8618530116134</v>
+        <v>311.9251828838326</v>
       </c>
       <c r="C167">
-        <v>313.0854334036357</v>
+        <v>307.0608079408348</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2228,10 +2228,10 @@
         <v>38139.57638888889</v>
       </c>
       <c r="B168">
-        <v>317.8336824505103</v>
+        <v>311.8967145943324</v>
       </c>
       <c r="C168">
-        <v>313.1028439500887</v>
+        <v>307.0770780427639</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>38139.57986111111</v>
       </c>
       <c r="B169">
-        <v>317.7816307251019</v>
+        <v>311.8623323503712</v>
       </c>
       <c r="C169">
-        <v>313.0997995895271</v>
+        <v>307.0909858961422</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2250,10 +2250,10 @@
         <v>38139.58333333334</v>
       </c>
       <c r="B170">
-        <v>317.652774507726</v>
+        <v>311.7268309742556</v>
       </c>
       <c r="C170">
-        <v>313.0551064796883</v>
+        <v>307.0418497566244</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>38139.58680555555</v>
       </c>
       <c r="B171">
-        <v>317.4518023741392</v>
+        <v>311.5538145352256</v>
       </c>
       <c r="C171">
-        <v>312.9527737717633</v>
+        <v>306.9700066875574</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>38139.59027777778</v>
       </c>
       <c r="B172">
-        <v>317.2111364809987</v>
+        <v>311.3573856403327</v>
       </c>
       <c r="C172">
-        <v>312.8197938089938</v>
+        <v>306.8846873128554</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>38139.59375</v>
       </c>
       <c r="B173">
-        <v>316.9205746205091</v>
+        <v>311.1448972167384</v>
       </c>
       <c r="C173">
-        <v>312.6439619017596</v>
+        <v>306.7906201930115</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>38139.59722222222</v>
       </c>
       <c r="B174">
-        <v>316.6026401531764</v>
+        <v>310.9210367007699</v>
       </c>
       <c r="C174">
-        <v>312.4456824454431</v>
+        <v>306.6907505603236</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2305,10 +2305,10 @@
         <v>38139.60069444445</v>
       </c>
       <c r="B175">
-        <v>316.2475550438602</v>
+        <v>310.6889900021036</v>
       </c>
       <c r="C175">
-        <v>312.2145095992897</v>
+        <v>306.5870183570141</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>38139.60416666666</v>
       </c>
       <c r="B176">
-        <v>316.4458860924237</v>
+        <v>311.0228920267492</v>
       </c>
       <c r="C176">
-        <v>311.8162483735044</v>
+        <v>306.3233275718879</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>38139.60763888889</v>
       </c>
       <c r="B177">
-        <v>316.5977205782356</v>
+        <v>311.2937559416277</v>
       </c>
       <c r="C177">
-        <v>311.5538217430513</v>
+        <v>306.1792794737229</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>38139.61111111111</v>
       </c>
       <c r="B178">
-        <v>316.7862169501255</v>
+        <v>311.5712336767303</v>
       </c>
       <c r="C178">
-        <v>311.3464580793366</v>
+        <v>306.0608089276446</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>38139.61458333334</v>
       </c>
       <c r="B179">
-        <v>317.1654992558515</v>
+        <v>312.0314808696983</v>
       </c>
       <c r="C179">
-        <v>310.9729057632898</v>
+        <v>305.7650744812422</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>38139.61805555555</v>
       </c>
       <c r="B180">
-        <v>317.4224866650776</v>
+        <v>312.3471935340428</v>
       </c>
       <c r="C180">
-        <v>310.7541895686529</v>
+        <v>305.6034753995319</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2371,10 +2371,10 @@
         <v>38139.62152777778</v>
       </c>
       <c r="B181">
-        <v>317.6335658189005</v>
+        <v>312.6124127661001</v>
       </c>
       <c r="C181">
-        <v>310.5705530057708</v>
+        <v>305.4727455345083</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2382,10 +2382,10 @@
         <v>38139.625</v>
       </c>
       <c r="B182">
-        <v>317.7712557767807</v>
+        <v>312.7384361571335</v>
       </c>
       <c r="C182">
-        <v>310.3956750151056</v>
+        <v>305.2895804491666</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2393,10 +2393,10 @@
         <v>38139.62847222222</v>
       </c>
       <c r="B183">
-        <v>318.062323281865</v>
+        <v>312.9958738954954</v>
       </c>
       <c r="C183">
-        <v>310.1332320769383</v>
+        <v>304.9956627150952</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>38139.63194444445</v>
       </c>
       <c r="B184">
-        <v>318.1253130220031</v>
+        <v>313.055627604405</v>
       </c>
       <c r="C184">
-        <v>309.9018489082993</v>
+        <v>304.7620029883528</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2415,10 +2415,10 @@
         <v>38139.63541666666</v>
       </c>
       <c r="B185">
-        <v>318.1450568350991</v>
+        <v>313.0322483565475</v>
       </c>
       <c r="C185">
-        <v>309.7145399811824</v>
+        <v>304.5361062627163</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2426,10 +2426,10 @@
         <v>38139.63888888889</v>
       </c>
       <c r="B186">
-        <v>318.1291672501084</v>
+        <v>312.94399513827</v>
       </c>
       <c r="C186">
-        <v>309.5549775660861</v>
+        <v>304.3105513084379</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2437,10 +2437,10 @@
         <v>38139.64236111111</v>
       </c>
       <c r="B187">
-        <v>318.0947155220427</v>
+        <v>312.7986990083153</v>
       </c>
       <c r="C187">
-        <v>309.4291601704265</v>
+        <v>304.0825211595666</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2448,10 +2448,10 @@
         <v>38139.64583333334</v>
       </c>
       <c r="B188">
-        <v>317.780106938599</v>
+        <v>312.3755519966261</v>
       </c>
       <c r="C188">
-        <v>309.256789396125</v>
+        <v>303.8107099486197</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2459,10 +2459,10 @@
         <v>38139.64930555555</v>
       </c>
       <c r="B189">
-        <v>317.3481623922903</v>
+        <v>311.8504489644114</v>
       </c>
       <c r="C189">
-        <v>309.053051985343</v>
+        <v>303.5227387525571</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2470,10 +2470,10 @@
         <v>38139.65277777778</v>
       </c>
       <c r="B190">
-        <v>316.8904475749961</v>
+        <v>311.3372554738107</v>
       </c>
       <c r="C190">
-        <v>308.8208765220919</v>
+        <v>303.2420148022435</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2481,10 +2481,10 @@
         <v>38139.65625</v>
       </c>
       <c r="B191">
-        <v>316.3414872237561</v>
+        <v>310.7369721166402</v>
       </c>
       <c r="C191">
-        <v>308.5686943984909</v>
+        <v>302.946989941404</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2492,10 +2492,10 @@
         <v>38139.65972222222</v>
       </c>
       <c r="B192">
-        <v>315.7267572254495</v>
+        <v>310.0970086382808</v>
       </c>
       <c r="C192">
-        <v>308.2843890543894</v>
+        <v>302.6451393988002</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2503,10 +2503,10 @@
         <v>38139.66319444445</v>
       </c>
       <c r="B193">
-        <v>315.081626313838</v>
+        <v>309.4295125186753</v>
       </c>
       <c r="C193">
-        <v>307.9908045937914</v>
+        <v>302.338126928856</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2514,10 +2514,10 @@
         <v>38139.66666666666</v>
       </c>
       <c r="B194">
-        <v>314.5532157004998</v>
+        <v>308.9520419862645</v>
       </c>
       <c r="C194">
-        <v>307.7192439364022</v>
+        <v>302.1158239741151</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2525,10 +2525,10 @@
         <v>38139.67013888889</v>
       </c>
       <c r="B195">
-        <v>314.0651196941607</v>
+        <v>308.5127097128362</v>
       </c>
       <c r="C195">
-        <v>307.4730142480132</v>
+        <v>301.9174534892111</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2536,10 +2536,10 @@
         <v>38139.67361111111</v>
       </c>
       <c r="B196">
-        <v>313.5853685783035</v>
+        <v>308.0818933161083</v>
       </c>
       <c r="C196">
-        <v>307.2370437909262</v>
+        <v>301.7297551794192</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2547,10 +2547,10 @@
         <v>38139.67708333334</v>
       </c>
       <c r="B197">
-        <v>313.1025847965111</v>
+        <v>307.6460786713775</v>
       </c>
       <c r="C197">
-        <v>307.0069451373965</v>
+        <v>301.5463611944891</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>38139.68055555555</v>
       </c>
       <c r="B198">
-        <v>312.5981127891759</v>
+        <v>307.1973812208878</v>
       </c>
       <c r="C198">
-        <v>306.7689364687176</v>
+        <v>301.3634363027175</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>38139.68402777778</v>
       </c>
       <c r="B199">
-        <v>312.0755983920355</v>
+        <v>306.7307565403885</v>
       </c>
       <c r="C199">
-        <v>306.5283190960005</v>
+        <v>301.1784827571315</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2580,10 +2580,10 @@
         <v>38139.6875</v>
       </c>
       <c r="B200">
-        <v>311.5227684691537</v>
+        <v>306.239367890001</v>
       </c>
       <c r="C200">
-        <v>306.3313059968367</v>
+        <v>301.0431081549602</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>38139.69097222222</v>
       </c>
       <c r="B201">
-        <v>310.9527348208945</v>
+        <v>305.7366679371139</v>
       </c>
       <c r="C201">
-        <v>306.1455664806327</v>
+        <v>300.9252187619106</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>38139.69444444445</v>
       </c>
       <c r="B202">
-        <v>310.3685644106978</v>
+        <v>305.226164361635</v>
       </c>
       <c r="C202">
-        <v>305.9636609597252</v>
+        <v>300.8177285851091</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>38139.69791666666</v>
       </c>
       <c r="B203">
-        <v>309.7742523251327</v>
+        <v>304.7097792209333</v>
       </c>
       <c r="C203">
-        <v>305.784154512909</v>
+        <v>300.7172162999347</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>38139.70138888889</v>
       </c>
       <c r="B204">
-        <v>309.1712855408898</v>
+        <v>304.188818490672</v>
       </c>
       <c r="C204">
-        <v>305.6052545803477</v>
+        <v>300.6216326026225</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2635,10 +2635,10 @@
         <v>38139.70486111111</v>
       </c>
       <c r="B205">
-        <v>308.5603770284559</v>
+        <v>303.6642680905953</v>
       </c>
       <c r="C205">
-        <v>305.425456207841</v>
+        <v>300.5296706794359</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2646,10 +2646,10 @@
         <v>38139.70833333334</v>
       </c>
       <c r="B206">
-        <v>307.9293692213473</v>
+        <v>303.1028377509733</v>
       </c>
       <c r="C206">
-        <v>305.2420171291483</v>
+        <v>300.4192323791122</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2657,10 +2657,10 @@
         <v>38139.71180555555</v>
       </c>
       <c r="B207">
-        <v>307.320091699411</v>
+        <v>302.5298690543751</v>
       </c>
       <c r="C207">
-        <v>305.0847488309855</v>
+        <v>300.3034756374087</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2668,10 +2668,10 @@
         <v>38139.71527777778</v>
       </c>
       <c r="B208">
-        <v>306.6748392731295</v>
+        <v>301.9515404976311</v>
       </c>
       <c r="C208">
-        <v>304.8960347843893</v>
+        <v>300.1850646642717</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2679,10 +2679,10 @@
         <v>38139.71875</v>
       </c>
       <c r="B209">
-        <v>306.0061450414472</v>
+        <v>301.371195074509</v>
       </c>
       <c r="C209">
-        <v>304.6851073777731</v>
+        <v>300.0651994833597</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2690,10 +2690,10 @@
         <v>38139.72222222222</v>
       </c>
       <c r="B210">
-        <v>304.3683147201709</v>
+        <v>299.8614058795538</v>
       </c>
       <c r="C210">
-        <v>305.2343264318699</v>
+        <v>300.7101875915546</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2701,10 +2701,10 @@
         <v>38139.72569444445</v>
       </c>
       <c r="B211">
-        <v>304.313243830758</v>
+        <v>299.9313459432059</v>
       </c>
       <c r="C211">
-        <v>304.7242796811535</v>
+        <v>300.3228505065325</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2712,10 +2712,10 @@
         <v>38139.72916666666</v>
       </c>
       <c r="B212">
-        <v>304.2691877388347</v>
+        <v>300.009983004489</v>
       </c>
       <c r="C212">
-        <v>304.2509185610202</v>
+        <v>299.9695532563572</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2723,10 +2723,10 @@
         <v>38139.73263888889</v>
       </c>
       <c r="B213">
-        <v>304.2151335579723</v>
+        <v>300.0862699292645</v>
       </c>
       <c r="C213">
-        <v>303.8020920432667</v>
+        <v>299.6487131623105</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2734,10 +2734,10 @@
         <v>38139.73611111111</v>
       </c>
       <c r="B214">
-        <v>304.1282990485036</v>
+        <v>300.1442883654872</v>
       </c>
       <c r="C214">
-        <v>303.3614800614417</v>
+        <v>299.351114752192</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2745,10 +2745,10 @@
         <v>38139.73958333334</v>
       </c>
       <c r="B215">
-        <v>304.0030057075314</v>
+        <v>300.1727552841</v>
       </c>
       <c r="C215">
-        <v>302.9286525953851</v>
+        <v>299.0705688503666</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2756,10 +2756,10 @@
         <v>38139.74305555555</v>
       </c>
       <c r="B216">
-        <v>303.8274912760934</v>
+        <v>300.1636427704691</v>
       </c>
       <c r="C216">
-        <v>302.4957816133601</v>
+        <v>298.8031003066212</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2767,10 +2767,10 @@
         <v>38139.74652777778</v>
       </c>
       <c r="B217">
-        <v>303.4663486664587</v>
+        <v>299.9793181085987</v>
       </c>
       <c r="C217">
-        <v>302.011664871812</v>
+        <v>298.4957030127783</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2778,10 +2778,10 @@
         <v>38139.75</v>
       </c>
       <c r="B218">
-        <v>303.1207436995538</v>
+        <v>299.8176264948765</v>
       </c>
       <c r="C218">
-        <v>301.5605674408387</v>
+        <v>298.2290088858471</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2789,10 +2789,10 @@
         <v>38139.75347222222</v>
       </c>
       <c r="B219">
-        <v>302.748931114219</v>
+        <v>299.6186913161429</v>
       </c>
       <c r="C219">
-        <v>301.1348792365847</v>
+        <v>297.976856638313</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2800,10 +2800,10 @@
         <v>38139.75694444445</v>
       </c>
       <c r="B220">
-        <v>302.2285992151411</v>
+        <v>299.2519429404787</v>
       </c>
       <c r="C220">
-        <v>300.7178842520346</v>
+        <v>297.714782778386</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2811,10 +2811,10 @@
         <v>38139.76041666666</v>
       </c>
       <c r="B221">
-        <v>301.7218573407882</v>
+        <v>298.8939809315124</v>
       </c>
       <c r="C221">
-        <v>300.3227975717709</v>
+        <v>297.4700785077879</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2822,10 +2822,10 @@
         <v>38139.76388888889</v>
       </c>
       <c r="B222">
-        <v>301.0261307148423</v>
+        <v>298.3452404942007</v>
       </c>
       <c r="C222">
-        <v>299.8974199805113</v>
+        <v>297.1940124187121</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2833,10 +2833,10 @@
         <v>38139.76736111111</v>
       </c>
       <c r="B223">
-        <v>300.2409076797003</v>
+        <v>297.717623307234</v>
       </c>
       <c r="C223">
-        <v>299.4776966662303</v>
+        <v>296.9347969151618</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2844,10 +2844,10 @@
         <v>38139.77083333334</v>
       </c>
       <c r="B224">
-        <v>299.6620210232434</v>
+        <v>297.3006376038351</v>
       </c>
       <c r="C224">
-        <v>299.0596060773559</v>
+        <v>296.6807674196672</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>38139.77430555555</v>
       </c>
       <c r="B225">
-        <v>299.1478748850417</v>
+        <v>296.9423296148066</v>
       </c>
       <c r="C225">
-        <v>298.6495494892301</v>
+        <v>296.4280088436767</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>38139.77777777778</v>
       </c>
       <c r="B226">
-        <v>298.6743843187197</v>
+        <v>296.6131283240298</v>
       </c>
       <c r="C226">
-        <v>298.2513028820541</v>
+        <v>296.1749969936479</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>38139.78125</v>
       </c>
       <c r="B227">
-        <v>298.2192769922392</v>
+        <v>296.2996578371197</v>
       </c>
       <c r="C227">
-        <v>297.8549694905648</v>
+        <v>295.9207614109115</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>38139.78472222222</v>
       </c>
       <c r="B228">
-        <v>297.7786853009642</v>
+        <v>295.9939417253685</v>
       </c>
       <c r="C228">
-        <v>297.4638081018384</v>
+        <v>295.6645869045262</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2899,10 +2899,10 @@
         <v>38139.78819444445</v>
       </c>
       <c r="B229">
-        <v>297.3438950436633</v>
+        <v>295.6907592749002</v>
       </c>
       <c r="C229">
-        <v>297.073733703999</v>
+        <v>295.4058998853145</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2910,10 +2910,10 @@
         <v>38139.79166666666</v>
       </c>
       <c r="B230">
-        <v>296.9443000624398</v>
+        <v>295.4026395828217</v>
       </c>
       <c r="C230">
-        <v>296.7182602149914</v>
+        <v>295.1618540831556</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2921,10 +2921,10 @@
         <v>38139.79513888889</v>
       </c>
       <c r="B231">
-        <v>296.5912180050243</v>
+        <v>295.1196320821731</v>
       </c>
       <c r="C231">
-        <v>296.405861744599</v>
+        <v>294.9200969513028</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2932,10 +2932,10 @@
         <v>38139.79861111111</v>
       </c>
       <c r="B232">
-        <v>296.265020099643</v>
+        <v>294.8359588643866</v>
       </c>
       <c r="C232">
-        <v>296.1210516725214</v>
+        <v>294.6787531891647</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2943,10 +2943,10 @@
         <v>38139.80208333334</v>
       </c>
       <c r="B233">
-        <v>295.936996909122</v>
+        <v>294.548603238598</v>
       </c>
       <c r="C233">
-        <v>295.8373036476316</v>
+        <v>294.4364591939087</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2954,10 +2954,10 @@
         <v>38139.80555555555</v>
       </c>
       <c r="B234">
-        <v>295.6103849516614</v>
+        <v>294.2555645902895</v>
       </c>
       <c r="C234">
-        <v>295.5586255509569</v>
+        <v>294.1921826272912</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2965,10 +2965,10 @@
         <v>38139.80902777778</v>
       </c>
       <c r="B235">
-        <v>295.2711820883762</v>
+        <v>293.943210186241</v>
       </c>
       <c r="C235">
-        <v>295.2778862244676</v>
+        <v>293.9609410695765</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2976,10 +2976,10 @@
         <v>38139.8125</v>
       </c>
       <c r="B236">
-        <v>295.0352351123158</v>
+        <v>293.742506911312</v>
       </c>
       <c r="C236">
-        <v>295.0175123479747</v>
+        <v>293.7352366070003</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2987,10 +2987,10 @@
         <v>38139.81597222222</v>
       </c>
       <c r="B237">
-        <v>294.8015606678047</v>
+        <v>293.5598796846946</v>
       </c>
       <c r="C237">
-        <v>294.7670859071575</v>
+        <v>293.5358566312124</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2998,10 +2998,10 @@
         <v>38139.81944444445</v>
       </c>
       <c r="B238">
-        <v>294.6125950955472</v>
+        <v>293.3880820890885</v>
       </c>
       <c r="C238">
-        <v>294.5676378128537</v>
+        <v>293.352523734495</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3009,10 +3009,10 @@
         <v>38139.82291666666</v>
       </c>
       <c r="B239">
-        <v>294.4178972341588</v>
+        <v>293.223379012206</v>
       </c>
       <c r="C239">
-        <v>294.3655976914628</v>
+        <v>293.1799648249205</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3020,10 +3020,10 @@
         <v>38139.82638888889</v>
       </c>
       <c r="B240">
-        <v>294.2467022550242</v>
+        <v>293.0633743355942</v>
       </c>
       <c r="C240">
-        <v>294.1904190184648</v>
+        <v>293.0148254093648</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3031,10 +3031,10 @@
         <v>38139.82986111111</v>
       </c>
       <c r="B241">
-        <v>294.0620255039213</v>
+        <v>292.9064216215212</v>
       </c>
       <c r="C241">
-        <v>294.0031347359893</v>
+        <v>292.8548244124779</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3042,10 +3042,10 @@
         <v>38139.83333333334</v>
       </c>
       <c r="B242">
-        <v>293.8485048138857</v>
+        <v>292.7039005325087</v>
       </c>
       <c r="C242">
-        <v>293.7922173200562</v>
+        <v>292.6540175125613</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3053,10 +3053,10 @@
         <v>38139.83680555555</v>
       </c>
       <c r="B243">
-        <v>293.6016819836388</v>
+        <v>292.4853135827184</v>
       </c>
       <c r="C243">
-        <v>293.5497828392667</v>
+        <v>292.43974240838</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3064,10 +3064,10 @@
         <v>38139.84027777778</v>
       </c>
       <c r="B244">
-        <v>293.3519896019033</v>
+        <v>292.2582448578914</v>
       </c>
       <c r="C244">
-        <v>293.306298134005</v>
+        <v>292.2186643118266</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3075,10 +3075,10 @@
         <v>38139.84375</v>
       </c>
       <c r="B245">
-        <v>293.0881165010796</v>
+        <v>292.0267930171174</v>
       </c>
       <c r="C245">
-        <v>293.0492755217655</v>
+        <v>291.9941985788992</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3086,10 +3086,10 @@
         <v>38139.84722222222</v>
       </c>
       <c r="B246">
-        <v>292.8345043547312</v>
+        <v>291.7937013248967</v>
       </c>
       <c r="C246">
-        <v>292.8032741083072</v>
+        <v>291.7685369397643</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3097,10 +3097,10 @@
         <v>38139.85069444445</v>
       </c>
       <c r="B247">
-        <v>292.5773972615992</v>
+        <v>291.5610053007089</v>
       </c>
       <c r="C247">
-        <v>292.5536088922417</v>
+        <v>291.5432643691562</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3108,10 +3108,10 @@
         <v>38139.85416666666</v>
       </c>
       <c r="B248">
-        <v>292.3360499020545</v>
+        <v>291.3359588752234</v>
       </c>
       <c r="C248">
-        <v>292.3526751246109</v>
+        <v>291.3467709057662</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>38139.85763888889</v>
       </c>
       <c r="B249">
-        <v>292.1553086519006</v>
+        <v>291.167195996604</v>
       </c>
       <c r="C249">
-        <v>292.1657867348649</v>
+        <v>291.1719476399434</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>38139.86111111111</v>
       </c>
       <c r="B250">
-        <v>292.0110018462095</v>
+        <v>291.016758025388</v>
       </c>
       <c r="C250">
-        <v>292.0161309261192</v>
+        <v>291.0163277880139</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>38139.86458333334</v>
       </c>
       <c r="B251">
-        <v>291.8818305716791</v>
+        <v>290.8789344150782</v>
       </c>
       <c r="C251">
-        <v>291.8826758905096</v>
+        <v>290.8742081124892</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>38139.86805555555</v>
       </c>
       <c r="B252">
-        <v>291.7843116106874</v>
+        <v>290.7505887097033</v>
       </c>
       <c r="C252">
-        <v>291.7818918827834</v>
+        <v>290.742442518229</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3163,10 +3163,10 @@
         <v>38139.87152777778</v>
       </c>
       <c r="B253">
-        <v>291.7527210643283</v>
+        <v>290.6296599407999</v>
       </c>
       <c r="C253">
-        <v>291.7484487373598</v>
+        <v>290.618950545219</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3174,10 +3174,10 @@
         <v>38139.875</v>
       </c>
       <c r="B254">
-        <v>291.735284887277</v>
+        <v>290.5272339820721</v>
       </c>
       <c r="C254">
-        <v>291.7280556850995</v>
+        <v>290.5142761190648</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3185,10 +3185,10 @@
         <v>38139.87847222222</v>
       </c>
       <c r="B255">
-        <v>291.6926046476568</v>
+        <v>290.4335765689048</v>
       </c>
       <c r="C255">
-        <v>291.6818335731426</v>
+        <v>290.4182891902126</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3196,10 +3196,10 @@
         <v>38139.88194444445</v>
       </c>
       <c r="B256">
-        <v>291.650023489189</v>
+        <v>290.3457205963591</v>
       </c>
       <c r="C256">
-        <v>291.6352857744071</v>
+        <v>290.3280038813199</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3207,10 +3207,10 @@
         <v>38139.88541666666</v>
       </c>
       <c r="B257">
-        <v>291.5696201188172</v>
+        <v>290.2619661122154</v>
       </c>
       <c r="C257">
-        <v>291.5509645023698</v>
+        <v>290.241636046499</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3218,10 +3218,10 @@
         <v>38139.88888888889</v>
       </c>
       <c r="B258">
-        <v>291.4602378443218</v>
+        <v>290.1811569944758</v>
       </c>
       <c r="C258">
-        <v>291.4379113644815</v>
+        <v>290.157995061102</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3229,10 +3229,10 @@
         <v>38139.89236111111</v>
       </c>
       <c r="B259">
-        <v>291.3081634679671</v>
+        <v>290.1024741555032</v>
       </c>
       <c r="C259">
-        <v>291.2829393721308</v>
+        <v>290.0762506088315</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3240,10 +3240,10 @@
         <v>38139.89583333334</v>
       </c>
       <c r="B260">
-        <v>291.1544371872411</v>
+        <v>290.0253196168005</v>
       </c>
       <c r="C260">
-        <v>291.1263695099875</v>
+        <v>289.9958100056623</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3251,10 +3251,10 @@
         <v>38139.89930555555</v>
       </c>
       <c r="B261">
-        <v>290.9884581523905</v>
+        <v>289.9492441441251</v>
       </c>
       <c r="C261">
-        <v>290.9579425870922</v>
+        <v>289.9162403876898</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3262,10 +3262,10 @@
         <v>38139.90277777778</v>
       </c>
       <c r="B262">
-        <v>290.835438110336</v>
+        <v>289.8738988691894</v>
       </c>
       <c r="C262">
-        <v>290.80208793458</v>
+        <v>289.8372160114566</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3273,10 +3273,10 @@
         <v>38139.90625</v>
       </c>
       <c r="B263">
-        <v>290.6700093076706</v>
+        <v>289.799002276702</v>
       </c>
       <c r="C263">
-        <v>290.634390825404</v>
+        <v>289.7584828425908</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3284,10 +3284,10 @@
         <v>38139.90972222222</v>
       </c>
       <c r="B264">
-        <v>290.5153452519661</v>
+        <v>289.7243176806108</v>
       </c>
       <c r="C264">
-        <v>290.4770938472141</v>
+        <v>289.6798357426882</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3295,10 +3295,10 @@
         <v>38139.91319444445</v>
       </c>
       <c r="B265">
-        <v>290.3465166269107</v>
+        <v>289.6496378815516</v>
       </c>
       <c r="C265">
-        <v>290.3064437338599</v>
+        <v>289.601104705371</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3306,10 +3306,10 @@
         <v>38139.91666666666</v>
       </c>
       <c r="B266">
-        <v>290.2301700548559</v>
+        <v>289.5978674859022</v>
       </c>
       <c r="C266">
-        <v>290.1903753131253</v>
+        <v>289.5493668965606</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3317,10 +3317,10 @@
         <v>38139.92013888889</v>
       </c>
       <c r="B267">
-        <v>290.1240770843289</v>
+        <v>289.5549607545676</v>
       </c>
       <c r="C267">
-        <v>290.0861776660132</v>
+        <v>289.5082972833607</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3328,10 +3328,10 @@
         <v>38139.92361111111</v>
       </c>
       <c r="B268">
-        <v>290.0526160868689</v>
+        <v>289.5170994366573</v>
       </c>
       <c r="C268">
-        <v>290.0166156793055</v>
+        <v>289.4733189836598</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3339,10 +3339,10 @@
         <v>38139.92708333334</v>
       </c>
       <c r="B269">
-        <v>289.9870646503456</v>
+        <v>289.482201672857</v>
       </c>
       <c r="C269">
-        <v>289.9536158843322</v>
+        <v>289.4418378240772</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3350,10 +3350,10 @@
         <v>38139.93055555555</v>
       </c>
       <c r="B270">
-        <v>289.9519866912382</v>
+        <v>289.4489074525093</v>
       </c>
       <c r="C270">
-        <v>289.9209059284441</v>
+        <v>289.4121005840017</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3361,10 +3361,10 @@
         <v>38139.93402777778</v>
       </c>
       <c r="B271">
-        <v>289.9169965573971</v>
+        <v>289.4162871176823</v>
       </c>
       <c r="C271">
-        <v>289.8885146878114</v>
+        <v>289.3828732148467</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3372,10 +3372,10 @@
         <v>38139.9375</v>
       </c>
       <c r="B272">
-        <v>289.9094209846809</v>
+        <v>289.3836934270561</v>
       </c>
       <c r="C272">
-        <v>289.8833685665329</v>
+        <v>289.3532760209229</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>38139.94097222222</v>
       </c>
       <c r="B273">
-        <v>289.7835791174853</v>
+        <v>289.3506559254727</v>
       </c>
       <c r="C273">
-        <v>289.7593285735427</v>
+        <v>289.3226760051418</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>38139.94444444445</v>
       </c>
       <c r="B274">
-        <v>289.6170693771759</v>
+        <v>289.3168419449732</v>
       </c>
       <c r="C274">
-        <v>289.592987157016</v>
+        <v>289.2906050235365</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>38139.94791666666</v>
       </c>
       <c r="B275">
-        <v>289.5371949982408</v>
+        <v>289.2820067749971</v>
       </c>
       <c r="C275">
-        <v>289.5132605415097</v>
+        <v>289.2567549839518</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>38139.95138888889</v>
       </c>
       <c r="B276">
-        <v>289.5225177978231</v>
+        <v>289.2459807660832</v>
       </c>
       <c r="C276">
-        <v>289.4992810278267</v>
+        <v>289.220892649251</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3427,10 +3427,10 @@
         <v>38139.95486111111</v>
       </c>
       <c r="B277">
-        <v>289.5057867302882</v>
+        <v>289.208666844751</v>
       </c>
       <c r="C277">
-        <v>289.4824530127627</v>
+        <v>289.182891876306</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3438,10 +3438,10 @@
         <v>38139.95833333334</v>
       </c>
       <c r="B278">
-        <v>289.4948489467429</v>
+        <v>289.1675652735724</v>
       </c>
       <c r="C278">
-        <v>289.4724862906938</v>
+        <v>289.1419022610249</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3449,10 +3449,10 @@
         <v>38139.96180555555</v>
       </c>
       <c r="B279">
-        <v>289.4554158245939</v>
+        <v>289.1248856732144</v>
       </c>
       <c r="C279">
-        <v>289.4332693660116</v>
+        <v>289.0995077203705</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3460,10 +3460,10 @@
         <v>38139.96527777778</v>
       </c>
       <c r="B280">
-        <v>289.4390603001589</v>
+        <v>289.0812532588199</v>
       </c>
       <c r="C280">
-        <v>289.4179820314368</v>
+        <v>289.0562309524573</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3471,10 +3471,10 @@
         <v>38139.96875</v>
       </c>
       <c r="B281">
-        <v>289.3997339636129</v>
+        <v>289.0370007610684</v>
       </c>
       <c r="C281">
-        <v>289.3789741354848</v>
+        <v>289.0123661361026</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3482,10 +3482,10 @@
         <v>38139.97222222222</v>
       </c>
       <c r="B282">
-        <v>289.3851009781336</v>
+        <v>288.9923371752314</v>
       </c>
       <c r="C282">
-        <v>289.3654780088642</v>
+        <v>288.9681017998396</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3493,10 +3493,10 @@
         <v>38139.97569444445</v>
       </c>
       <c r="B283">
-        <v>289.3491540352198</v>
+        <v>288.9474001733566</v>
       </c>
       <c r="C283">
-        <v>289.3299156148519</v>
+        <v>288.9235636243968</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3504,10 +3504,10 @@
         <v>38139.97916666666</v>
       </c>
       <c r="B284">
-        <v>289.3370845305087</v>
+        <v>288.9022826496536</v>
       </c>
       <c r="C284">
-        <v>289.3189901432955</v>
+        <v>288.8788371988143</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3515,10 +3515,10 @@
         <v>38139.98263888889</v>
       </c>
       <c r="B285">
-        <v>289.3041732173678</v>
+        <v>288.8570483218035</v>
       </c>
       <c r="C285">
-        <v>289.286467348306</v>
+        <v>288.8339817168865</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3526,10 +3526,10 @@
         <v>38139.98611111111</v>
       </c>
       <c r="B286">
-        <v>289.294012860543</v>
+        <v>288.8117414365708</v>
       </c>
       <c r="C286">
-        <v>289.2774118485078</v>
+        <v>288.7890386302175</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3537,10 +3537,10 @@
         <v>38139.98958333334</v>
       </c>
       <c r="B287">
-        <v>289.2633885857528</v>
+        <v>288.7663930037482</v>
       </c>
       <c r="C287">
-        <v>289.2471472264444</v>
+        <v>288.7440372664041</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3548,10 +3548,10 @@
         <v>38139.99305555555</v>
       </c>
       <c r="B288">
-        <v>289.2544902356041</v>
+        <v>288.721024889838</v>
       </c>
       <c r="C288">
-        <v>289.2392947015621</v>
+        <v>288.698998546473</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3559,10 +3559,10 @@
         <v>38139.99652777778</v>
       </c>
       <c r="B289">
-        <v>289.2256217061284</v>
+        <v>288.6756525542664</v>
       </c>
       <c r="C289">
-        <v>289.2107464152342</v>
+        <v>288.6539374828062</v>
       </c>
     </row>
   </sheetData>
